--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,15 +98,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>8.122177909953969</v>
+        <v>0.5483655799443334</v>
       </c>
       <c r="R2">
-        <v>8.122177909953969</v>
+        <v>4.935290219499</v>
       </c>
       <c r="S2">
-        <v>0.02552192963186208</v>
+        <v>0.001336630743002162</v>
       </c>
       <c r="T2">
-        <v>0.02552192963186208</v>
+        <v>0.001336630743002161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>136.6021507936411</v>
+        <v>4.842496772560667</v>
       </c>
       <c r="R3">
-        <v>136.6021507936411</v>
+        <v>43.582470953046</v>
       </c>
       <c r="S3">
-        <v>0.4292383790120746</v>
+        <v>0.01180349441288856</v>
       </c>
       <c r="T3">
-        <v>0.4292383790120746</v>
+        <v>0.01180349441288855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H4">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>13.4927749559382</v>
+        <v>0.9757401048423334</v>
       </c>
       <c r="R4">
-        <v>13.4927749559382</v>
+        <v>8.781660943581</v>
       </c>
       <c r="S4">
-        <v>0.04239769884158538</v>
+        <v>0.002378348074736583</v>
       </c>
       <c r="T4">
-        <v>0.04239769884158538</v>
+        <v>0.002378348074736582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H5">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I5">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J5">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>7.026619088381106</v>
+        <v>0.360285612952</v>
       </c>
       <c r="R5">
-        <v>7.026619088381106</v>
+        <v>3.242570516568</v>
       </c>
       <c r="S5">
-        <v>0.02207940775389612</v>
+        <v>0.0008781893761127508</v>
       </c>
       <c r="T5">
-        <v>0.02207940775389612</v>
+        <v>0.0008781893761127507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H6">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I6">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J6">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>101.7753489491397</v>
+        <v>0.3244900550953334</v>
       </c>
       <c r="R6">
-        <v>101.7753489491397</v>
+        <v>2.920410495858</v>
       </c>
       <c r="S6">
-        <v>0.3198037919059658</v>
+        <v>0.0007909383799816842</v>
       </c>
       <c r="T6">
-        <v>0.3198037919059658</v>
+        <v>0.000790938379981684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.16786182214407</v>
+        <v>0.397979</v>
       </c>
       <c r="H7">
-        <v>2.16786182214407</v>
+        <v>1.193937</v>
       </c>
       <c r="I7">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J7">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>1.558130805261024</v>
+        <v>3.955791070342</v>
       </c>
       <c r="R7">
-        <v>1.558130805261024</v>
+        <v>35.602119633078</v>
       </c>
       <c r="S7">
-        <v>0.004896039610308637</v>
+        <v>0.009642166012770695</v>
       </c>
       <c r="T7">
-        <v>0.004896039610308637</v>
+        <v>0.009642166012770695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J8">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>26.20528897251034</v>
+        <v>15.63739887377912</v>
       </c>
       <c r="R8">
-        <v>26.20528897251034</v>
+        <v>140.736589864012</v>
       </c>
       <c r="S8">
-        <v>0.08234362120034017</v>
+        <v>0.03811586437901942</v>
       </c>
       <c r="T8">
-        <v>0.08234362120034017</v>
+        <v>0.03811586437901941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J9">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>2.588407757177645</v>
+        <v>138.0904570728275</v>
       </c>
       <c r="R9">
-        <v>2.588407757177645</v>
+        <v>1242.814113655448</v>
       </c>
       <c r="S9">
-        <v>0.008133429403989527</v>
+        <v>0.3365928807156324</v>
       </c>
       <c r="T9">
-        <v>0.008133429403989527</v>
+        <v>0.3365928807156323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J10">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>1.347962551401904</v>
+        <v>27.82457137100312</v>
       </c>
       <c r="R10">
-        <v>1.347962551401904</v>
+        <v>250.421142339028</v>
       </c>
       <c r="S10">
-        <v>0.004235637998165892</v>
+        <v>0.06782186713673018</v>
       </c>
       <c r="T10">
-        <v>0.004235637998165892</v>
+        <v>0.06782186713673015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,1673 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H11">
+        <v>34.046756</v>
+      </c>
+      <c r="I11">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J11">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.905288</v>
+      </c>
+      <c r="N11">
+        <v>2.715864</v>
+      </c>
+      <c r="O11">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P11">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q11">
+        <v>10.27403988190934</v>
+      </c>
+      <c r="R11">
+        <v>92.466358937184</v>
+      </c>
+      <c r="S11">
+        <v>0.02504277814516432</v>
+      </c>
+      <c r="T11">
+        <v>0.02504277814516432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H12">
+        <v>34.046756</v>
+      </c>
+      <c r="I12">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J12">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.446034</v>
+      </c>
+      <c r="O12">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P12">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q12">
+        <v>9.253280307300447</v>
+      </c>
+      <c r="R12">
+        <v>83.279522765704</v>
+      </c>
+      <c r="S12">
+        <v>0.02255469596324738</v>
+      </c>
+      <c r="T12">
+        <v>0.02255469596324737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H13">
+        <v>34.046756</v>
+      </c>
+      <c r="I13">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J13">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.939698</v>
+      </c>
+      <c r="N13">
+        <v>29.819094</v>
+      </c>
+      <c r="O13">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P13">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q13">
+        <v>112.8048241732293</v>
+      </c>
+      <c r="R13">
+        <v>1015.243417559064</v>
+      </c>
+      <c r="S13">
+        <v>0.2749596281447821</v>
+      </c>
+      <c r="T13">
+        <v>0.2749596281447821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.119535</v>
+      </c>
+      <c r="H14">
+        <v>0.358605</v>
+      </c>
+      <c r="I14">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J14">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P14">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q14">
+        <v>0.164704367815</v>
+      </c>
+      <c r="R14">
+        <v>1.482339310335</v>
+      </c>
+      <c r="S14">
+        <v>0.0004014637854378331</v>
+      </c>
+      <c r="T14">
+        <v>0.0004014637854378331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.119535</v>
+      </c>
+      <c r="H15">
+        <v>0.358605</v>
+      </c>
+      <c r="I15">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J15">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N15">
+        <v>36.503158</v>
+      </c>
+      <c r="O15">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P15">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q15">
+        <v>1.45446833051</v>
+      </c>
+      <c r="R15">
+        <v>13.09021497459</v>
+      </c>
+      <c r="S15">
+        <v>0.003545239082073761</v>
+      </c>
+      <c r="T15">
+        <v>0.003545239082073762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.119535</v>
+      </c>
+      <c r="H16">
+        <v>0.358605</v>
+      </c>
+      <c r="I16">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J16">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.355213</v>
+      </c>
+      <c r="O16">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P16">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q16">
+        <v>0.293068461985</v>
+      </c>
+      <c r="R16">
+        <v>2.637616157865</v>
+      </c>
+      <c r="S16">
+        <v>0.0007143488402997078</v>
+      </c>
+      <c r="T16">
+        <v>0.0007143488402997077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.119535</v>
+      </c>
+      <c r="H17">
+        <v>0.358605</v>
+      </c>
+      <c r="I17">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J17">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.905288</v>
+      </c>
+      <c r="N17">
+        <v>2.715864</v>
+      </c>
+      <c r="O17">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P17">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q17">
+        <v>0.10821360108</v>
+      </c>
+      <c r="R17">
+        <v>0.97392240972</v>
+      </c>
+      <c r="S17">
+        <v>0.0002637686085789392</v>
+      </c>
+      <c r="T17">
+        <v>0.0002637686085789392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.119535</v>
+      </c>
+      <c r="H18">
+        <v>0.358605</v>
+      </c>
+      <c r="I18">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J18">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.446034</v>
+      </c>
+      <c r="O18">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P18">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q18">
+        <v>0.09746222473</v>
+      </c>
+      <c r="R18">
+        <v>0.87716002257</v>
+      </c>
+      <c r="S18">
+        <v>0.0002375623318092427</v>
+      </c>
+      <c r="T18">
+        <v>0.0002375623318092427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.119535</v>
+      </c>
+      <c r="H19">
+        <v>0.358605</v>
+      </c>
+      <c r="I19">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J19">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.939698</v>
+      </c>
+      <c r="N19">
+        <v>29.819094</v>
+      </c>
+      <c r="O19">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P19">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q19">
+        <v>1.18814180043</v>
+      </c>
+      <c r="R19">
+        <v>10.69327620387</v>
+      </c>
+      <c r="S19">
+        <v>0.002896073195662447</v>
+      </c>
+      <c r="T19">
+        <v>0.002896073195662447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.372081</v>
+      </c>
+      <c r="I20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P20">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q20">
+        <v>0.6301856741985558</v>
+      </c>
+      <c r="R20">
+        <v>5.671671067787002</v>
+      </c>
+      <c r="S20">
+        <v>0.001536065677241889</v>
+      </c>
+      <c r="T20">
+        <v>0.001536065677241889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="H11">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="I11">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="J11">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="N11">
-        <v>9.00621724652609</v>
-      </c>
-      <c r="O11">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="P11">
-        <v>0.3811538565477776</v>
-      </c>
-      <c r="Q11">
-        <v>19.5242345306794</v>
-      </c>
-      <c r="R11">
-        <v>19.5242345306794</v>
-      </c>
-      <c r="S11">
-        <v>0.06135006464181175</v>
-      </c>
-      <c r="T11">
-        <v>0.06135006464181175</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.372081</v>
+      </c>
+      <c r="I21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N21">
+        <v>36.503158</v>
+      </c>
+      <c r="O21">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P21">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q21">
+        <v>5.565032170199777</v>
+      </c>
+      <c r="R21">
+        <v>50.085289531798</v>
+      </c>
+      <c r="S21">
+        <v>0.01356466079661703</v>
+      </c>
+      <c r="T21">
+        <v>0.01356466079661703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.372081</v>
+      </c>
+      <c r="I22">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J22">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.355213</v>
+      </c>
+      <c r="O22">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P22">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q22">
+        <v>1.121327556472556</v>
+      </c>
+      <c r="R22">
+        <v>10.091948008253</v>
+      </c>
+      <c r="S22">
+        <v>0.00273321473807466</v>
+      </c>
+      <c r="T22">
+        <v>0.002733214738074659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.372081</v>
+      </c>
+      <c r="I23">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J23">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.905288</v>
+      </c>
+      <c r="N23">
+        <v>2.715864</v>
+      </c>
+      <c r="O23">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P23">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q23">
+        <v>0.4140428214426667</v>
+      </c>
+      <c r="R23">
+        <v>3.726385392984</v>
+      </c>
+      <c r="S23">
+        <v>0.001009221556385437</v>
+      </c>
+      <c r="T23">
+        <v>0.001009221556385437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.372081</v>
+      </c>
+      <c r="I24">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J24">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.446034</v>
+      </c>
+      <c r="O24">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P24">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q24">
+        <v>0.3729063085282223</v>
+      </c>
+      <c r="R24">
+        <v>3.356156776754</v>
+      </c>
+      <c r="S24">
+        <v>0.000908952083186675</v>
+      </c>
+      <c r="T24">
+        <v>0.0009089520831866749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.372081</v>
+      </c>
+      <c r="I25">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J25">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.939698</v>
+      </c>
+      <c r="N25">
+        <v>29.819094</v>
+      </c>
+      <c r="O25">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P25">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q25">
+        <v>4.546023590512667</v>
+      </c>
+      <c r="R25">
+        <v>40.91421231461401</v>
+      </c>
+      <c r="S25">
+        <v>0.01108084663174726</v>
+      </c>
+      <c r="T25">
+        <v>0.01108084663174726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.391799</v>
+      </c>
+      <c r="I26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P26">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q26">
+        <v>0.1799501027747778</v>
+      </c>
+      <c r="R26">
+        <v>1.619550924973</v>
+      </c>
+      <c r="S26">
+        <v>0.0004386249764246387</v>
+      </c>
+      <c r="T26">
+        <v>0.0004386249764246386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.391799</v>
+      </c>
+      <c r="I27">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J27">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N27">
+        <v>36.503158</v>
+      </c>
+      <c r="O27">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P27">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q27">
+        <v>1.589100089026889</v>
+      </c>
+      <c r="R27">
+        <v>14.301900801242</v>
+      </c>
+      <c r="S27">
+        <v>0.003873401450390869</v>
+      </c>
+      <c r="T27">
+        <v>0.003873401450390869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.391799</v>
+      </c>
+      <c r="I28">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J28">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N28">
+        <v>7.355213</v>
+      </c>
+      <c r="O28">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P28">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q28">
+        <v>0.3201961220207778</v>
+      </c>
+      <c r="R28">
+        <v>2.881765098187</v>
+      </c>
+      <c r="S28">
+        <v>0.0007804719992208286</v>
+      </c>
+      <c r="T28">
+        <v>0.0007804719992208284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.391799</v>
+      </c>
+      <c r="I29">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J29">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.905288</v>
+      </c>
+      <c r="N29">
+        <v>2.715864</v>
+      </c>
+      <c r="O29">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P29">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q29">
+        <v>0.1182303110373333</v>
+      </c>
+      <c r="R29">
+        <v>1.064072799336</v>
+      </c>
+      <c r="S29">
+        <v>0.0002881841498936708</v>
+      </c>
+      <c r="T29">
+        <v>0.0002881841498936707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.391799</v>
+      </c>
+      <c r="I30">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J30">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N30">
+        <v>2.446034</v>
+      </c>
+      <c r="O30">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P30">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q30">
+        <v>0.1064837416851111</v>
+      </c>
+      <c r="R30">
+        <v>0.958353675166</v>
+      </c>
+      <c r="S30">
+        <v>0.0002595521089793213</v>
+      </c>
+      <c r="T30">
+        <v>0.0002595521089793211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J31">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.939698</v>
+      </c>
+      <c r="N31">
+        <v>29.819094</v>
+      </c>
+      <c r="O31">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P31">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q31">
+        <v>1.298121245567333</v>
+      </c>
+      <c r="R31">
+        <v>11.683091210106</v>
+      </c>
+      <c r="S31">
+        <v>0.003164146015775996</v>
+      </c>
+      <c r="T31">
+        <v>0.003164146015775996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H32">
+        <v>7.137283</v>
+      </c>
+      <c r="I32">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J32">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P32">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q32">
+        <v>3.278096190604556</v>
+      </c>
+      <c r="R32">
+        <v>29.502865715441</v>
+      </c>
+      <c r="S32">
+        <v>0.007990297544432158</v>
+      </c>
+      <c r="T32">
+        <v>0.007990297544432156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H33">
+        <v>7.137283</v>
+      </c>
+      <c r="I33">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J33">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N33">
+        <v>36.503158</v>
+      </c>
+      <c r="O33">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P33">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q33">
+        <v>28.94815211552378</v>
+      </c>
+      <c r="R33">
+        <v>260.533369039714</v>
+      </c>
+      <c r="S33">
+        <v>0.07056057397811147</v>
+      </c>
+      <c r="T33">
+        <v>0.07056057397811147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H34">
+        <v>7.137283</v>
+      </c>
+      <c r="I34">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J34">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N34">
+        <v>7.355213</v>
+      </c>
+      <c r="O34">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P34">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q34">
+        <v>5.832915189586555</v>
+      </c>
+      <c r="R34">
+        <v>52.496236706279</v>
+      </c>
+      <c r="S34">
+        <v>0.01421762059631299</v>
+      </c>
+      <c r="T34">
+        <v>0.01421762059631299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H35">
+        <v>7.137283</v>
+      </c>
+      <c r="I35">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J35">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.905288</v>
+      </c>
+      <c r="N35">
+        <v>2.715864</v>
+      </c>
+      <c r="O35">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P35">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q35">
+        <v>2.153765550834667</v>
+      </c>
+      <c r="R35">
+        <v>19.383889957512</v>
+      </c>
+      <c r="S35">
+        <v>0.005249762847545676</v>
+      </c>
+      <c r="T35">
+        <v>0.005249762847545676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H36">
+        <v>7.137283</v>
+      </c>
+      <c r="I36">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J36">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.446034</v>
+      </c>
+      <c r="O36">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P36">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q36">
+        <v>1.939781876180222</v>
+      </c>
+      <c r="R36">
+        <v>17.458036885622</v>
+      </c>
+      <c r="S36">
+        <v>0.004728181682526644</v>
+      </c>
+      <c r="T36">
+        <v>0.004728181682526643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H37">
+        <v>7.137283</v>
+      </c>
+      <c r="I37">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J37">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.939698</v>
+      </c>
+      <c r="N37">
+        <v>29.819094</v>
+      </c>
+      <c r="O37">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P37">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q37">
+        <v>23.64747918684467</v>
+      </c>
+      <c r="R37">
+        <v>212.827312681602</v>
+      </c>
+      <c r="S37">
+        <v>0.05764028383920262</v>
+      </c>
+      <c r="T37">
+        <v>0.05764028383920262</v>
       </c>
     </row>
   </sheetData>
